--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3013.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3013.xlsx
@@ -354,7 +354,7 @@
         <v>2.314670159485629</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.282712553598341</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3013.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3013.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.169245441240224</v>
+        <v>1.225803017616272</v>
       </c>
       <c r="B1">
-        <v>2.314670159485629</v>
+        <v>1.649744391441345</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>2.01209282875061</v>
       </c>
       <c r="D1">
-        <v>2.282712553598341</v>
+        <v>6.773933887481689</v>
       </c>
       <c r="E1">
-        <v>1.201990549593206</v>
+        <v>2.083653926849365</v>
       </c>
     </row>
   </sheetData>
